--- a/diagramme.xlsx
+++ b/diagramme.xlsx
@@ -315,15 +315,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>958126</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25510</xdr:rowOff>
+      <xdr:colOff>1306340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>503414</xdr:colOff>
+      <xdr:colOff>398633</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>22850</xdr:rowOff>
+      <xdr:rowOff>164394</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -338,8 +338,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="13454531">
-          <a:off x="2786926" y="2844910"/>
-          <a:ext cx="2955238" cy="378340"/>
+          <a:off x="3135140" y="3102680"/>
+          <a:ext cx="2502243" cy="262114"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -641,7 +641,7 @@
   <dimension ref="B1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/diagramme.xlsx
+++ b/diagramme.xlsx
@@ -60,9 +60,6 @@
     <t>Prenom[30] : string</t>
   </si>
   <si>
-    <t>Sexe : char</t>
-  </si>
-  <si>
     <t>Adresse postale : string</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Adresse mail de l'entreprise : string</t>
+  </si>
+  <si>
+    <t>Sexe : string</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="B1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>

--- a/diagramme.xlsx
+++ b/diagramme.xlsx
@@ -75,7 +75,7 @@
     <t>Adresse mail de l'entreprise : string</t>
   </si>
   <si>
-    <t>Sexe : string</t>
+    <t>Sexe : char</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="B1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
